--- a/t1_confection/A1_Outputs/A-O_Fleet.xlsx
+++ b/t1_confection/A1_Outputs/A-O_Fleet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RD_Model_v7_FUNCIONAL\A1_Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisfernando\Dropbox\2_WORK\MOMF\RD_Model_latest\RD_model_int\A1_Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76194D01-8B7D-4D69-9023-7CB05F676A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AADADF2-BA4C-4CFD-831F-5EA987DDDB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-76920" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration_Fleet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="136">
   <si>
     <t>Group.ID</t>
   </si>
@@ -981,28 +981,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>2050</v>
       </c>
       <c r="I3" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>18</v>
@@ -1125,7 +1123,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1151,7 +1149,7 @@
         <v>2050</v>
       </c>
       <c r="I4" s="8">
-        <v>70.3</v>
+        <v>69</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>18</v>
@@ -1166,7 +1164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>2050</v>
       </c>
       <c r="I5" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>18</v>
@@ -1207,7 +1205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>2050</v>
       </c>
       <c r="I6" s="8">
-        <v>7.0000000000000001E-3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>18</v>
@@ -1248,7 +1246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>1</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2</v>
       </c>
@@ -1330,7 +1328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2</v>
       </c>
@@ -1356,7 +1354,7 @@
         <v>2050</v>
       </c>
       <c r="I9" s="14">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>18</v>
@@ -1371,7 +1369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2</v>
       </c>
@@ -1397,7 +1395,7 @@
         <v>2050</v>
       </c>
       <c r="I10" s="14">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="J10" s="15" t="s">
         <v>18</v>
@@ -1412,7 +1410,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -1494,7 +1492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>3</v>
       </c>
@@ -1520,7 +1518,7 @@
         <v>2050</v>
       </c>
       <c r="I13" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>18</v>
@@ -1535,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>3</v>
       </c>
@@ -1555,28 +1553,28 @@
         <v>2018</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2050</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>4</v>
       </c>
@@ -1617,7 +1615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>4</v>
       </c>
@@ -1643,7 +1641,7 @@
         <v>2050</v>
       </c>
       <c r="I16" s="14">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="J16" s="15" t="s">
         <v>18</v>
@@ -1658,7 +1656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>4</v>
       </c>
@@ -1684,7 +1682,7 @@
         <v>2050</v>
       </c>
       <c r="I17" s="14">
-        <v>64.599999999999994</v>
+        <v>29</v>
       </c>
       <c r="J17" s="15" t="s">
         <v>18</v>
@@ -1699,7 +1697,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>4</v>
       </c>
@@ -1725,7 +1723,7 @@
         <v>2050</v>
       </c>
       <c r="I18" s="14">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="J18" s="15" t="s">
         <v>18</v>
@@ -1740,7 +1738,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>4</v>
       </c>
@@ -1781,7 +1779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>4</v>
       </c>
@@ -1807,7 +1805,7 @@
         <v>2050</v>
       </c>
       <c r="I20" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" s="15" t="s">
         <v>18</v>
@@ -1822,7 +1820,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>5</v>
       </c>
@@ -1863,7 +1861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -1889,7 +1887,7 @@
         <v>2050</v>
       </c>
       <c r="I22" s="8">
-        <v>2.66</v>
+        <v>40</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>18</v>
@@ -1904,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -1930,7 +1928,7 @@
         <v>2050</v>
       </c>
       <c r="I23" s="8">
-        <v>4.9400000000000004</v>
+        <v>44</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>18</v>
@@ -1945,7 +1943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>5</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>2050</v>
       </c>
       <c r="I24" s="8">
-        <v>1.1399999999999999</v>
+        <v>13</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>18</v>
@@ -1986,7 +1984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -2006,28 +2004,28 @@
         <v>2018</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2051</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>5</v>
       </c>
@@ -2068,7 +2066,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>6</v>
       </c>
@@ -2109,7 +2107,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>6</v>
       </c>
@@ -2135,7 +2133,7 @@
         <v>2050</v>
       </c>
       <c r="I28" s="14">
-        <v>3.99</v>
+        <v>40</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>18</v>
@@ -2150,7 +2148,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>6</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>2050</v>
       </c>
       <c r="I29" s="14">
-        <v>7.41</v>
+        <v>44</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>18</v>
@@ -2191,7 +2189,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>6</v>
       </c>
@@ -2217,7 +2215,7 @@
         <v>2050</v>
       </c>
       <c r="I30" s="14">
-        <v>1.71</v>
+        <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>18</v>
@@ -2232,7 +2230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>6</v>
       </c>
@@ -2273,7 +2271,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>6</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>7</v>
       </c>
@@ -2355,7 +2353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>7</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>2050</v>
       </c>
       <c r="I34" s="8">
-        <v>30.4</v>
+        <v>40</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>18</v>
@@ -2396,7 +2394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>7</v>
       </c>
@@ -2422,7 +2420,7 @@
         <v>2050</v>
       </c>
       <c r="I35" s="8">
-        <v>33.299999999999997</v>
+        <v>44</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>18</v>
@@ -2437,7 +2435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>7</v>
       </c>
@@ -2463,7 +2461,7 @@
         <v>2050</v>
       </c>
       <c r="I36" s="8">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>18</v>
@@ -2478,7 +2476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -2519,7 +2517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>8</v>
       </c>
@@ -2560,7 +2558,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>8</v>
       </c>
@@ -2601,7 +2599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>9</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>9</v>
       </c>
@@ -2683,7 +2681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
         <v>10</v>
       </c>
@@ -2724,7 +2722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="14">
         <v>10</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>11</v>
       </c>
@@ -2806,7 +2804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>11</v>
       </c>
@@ -2832,7 +2830,7 @@
         <v>2050</v>
       </c>
       <c r="I45" s="8">
-        <v>93.1</v>
+        <v>97</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>18</v>
@@ -2847,7 +2845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>11</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>11</v>
       </c>
@@ -2907,29 +2905,15 @@
       <c r="F47" s="8">
         <v>2018</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H47" s="9">
-        <v>2050</v>
-      </c>
-      <c r="I47" s="8">
-        <v>1</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>11</v>
       </c>
@@ -2970,7 +2954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>11</v>
       </c>
@@ -3011,7 +2995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>11</v>
       </c>
@@ -3052,7 +3036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>12</v>
       </c>
@@ -3093,7 +3077,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
         <v>12</v>
       </c>
@@ -3119,7 +3103,7 @@
         <v>2050</v>
       </c>
       <c r="I52" s="14">
-        <v>55.1</v>
+        <v>78</v>
       </c>
       <c r="J52" s="15" t="s">
         <v>18</v>
@@ -3134,7 +3118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>12</v>
       </c>
@@ -3160,7 +3144,7 @@
         <v>2050</v>
       </c>
       <c r="I53" s="14">
-        <v>23.8</v>
+        <v>4</v>
       </c>
       <c r="J53" s="15" t="s">
         <v>18</v>
@@ -3175,7 +3159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>12</v>
       </c>
@@ -3201,7 +3185,7 @@
         <v>2050</v>
       </c>
       <c r="I54" s="14">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>18</v>
@@ -3216,7 +3200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>12</v>
       </c>
@@ -3257,7 +3241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>12</v>
       </c>
@@ -3298,7 +3282,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
         <v>12</v>
       </c>
@@ -3345,8 +3329,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="27b2dddd8e7dbb40e638da4098fa8bb9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d3d23b2622c6bf8a24212abcb0f9b2c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CCDA0DC61E44874FB77B81A0A8C300E4" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694dc5982778b78571808a8a0bab1175">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c2c21c4-f980-47d5-be5b-1bb924ee96a2" xmlns:ns3="1b6bb729-2ef5-410d-b4d4-7ced22c361d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ac46d101c58d29857918b5bc3d6299d1" ns2:_="" ns3:_="">
     <xsd:import namespace="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
     <xsd:import namespace="1b6bb729-2ef5-410d-b4d4-7ced22c361d1"/>
     <xsd:element name="properties">
@@ -3576,6 +3560,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c2c21c4-f980-47d5-be5b-1bb924ee96a2">
@@ -3585,33 +3578,25 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87EB8D41-DD63-4328-8456-5182B37166B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA0C3DD8-09CB-43C3-B5D3-41D3E58DA8B0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2942FC4A-C68A-4BDC-8EAE-FEB2B1D88B55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36CF4A2E-7F59-4801-9032-73CA83CC34AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="c4f98862-adfd-4d9c-a945-852f80f0eb51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2942FC4A-C68A-4BDC-8EAE-FEB2B1D88B55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>